--- a/Annotations/New/TheBlackCompany.xlsx
+++ b/Annotations/New/TheBlackCompany.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832"/>
   </bookViews>
   <sheets>
     <sheet name="blackcompany" sheetId="1" r:id="rId1"/>
@@ -1882,29 +1882,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P305"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="I290" sqref="I290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="12.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>305</v>
       </c>
@@ -1954,10 +1954,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>9.930419813969249E-3</v>
+        <v>0.61782881022424352</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -1975,10 +1975,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35930062784370587</v>
+        <v>0.95427041953362424</v>
       </c>
       <c r="B3" s="2">
         <v>179</v>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0299228278744148E-2</v>
+        <v>0.93789231653005911</v>
       </c>
       <c r="B4" s="2">
         <v>256</v>
@@ -2020,10 +2020,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75861673404571639</v>
+        <v>0.80907750407901269</v>
       </c>
       <c r="B5" s="2">
         <v>165</v>
@@ -2044,10 +2044,10 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32450694310842243</v>
+        <v>0.55935753985140979</v>
       </c>
       <c r="B6" s="2">
         <v>194</v>
@@ -2071,10 +2071,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65044093939739089</v>
+        <v>0.81215656037353601</v>
       </c>
       <c r="B7" s="2">
         <v>192</v>
@@ -2095,10 +2095,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24043893658871174</v>
+        <v>0.35765264259648766</v>
       </c>
       <c r="B8" s="2">
         <v>229</v>
@@ -2116,10 +2116,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16632472215845795</v>
+        <v>0.36856415486254168</v>
       </c>
       <c r="B9" s="2">
         <v>175</v>
@@ -2140,10 +2140,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52958722482069709</v>
+        <v>0.96513390435696167</v>
       </c>
       <c r="B10" s="2">
         <v>23</v>
@@ -2161,10 +2161,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64479681806006128</v>
+        <v>0.3278286232403268</v>
       </c>
       <c r="B11" s="2">
         <v>87</v>
@@ -2185,10 +2185,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52545230292986123</v>
+        <v>0.34778378000154297</v>
       </c>
       <c r="B12" s="2">
         <v>190</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68711036861866559</v>
+        <v>0.18641964497782626</v>
       </c>
       <c r="B13" s="2">
         <v>234</v>
@@ -2230,10 +2230,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73526129316791045</v>
+        <v>0.94448791506429353</v>
       </c>
       <c r="B14" s="2">
         <v>136</v>
@@ -2260,10 +2260,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14182980807887535</v>
+        <v>0.47707430830979269</v>
       </c>
       <c r="B15" s="2">
         <v>77</v>
@@ -2287,10 +2287,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43418783408526174</v>
+        <v>0.16616108402329721</v>
       </c>
       <c r="B16" s="2">
         <v>286</v>
@@ -2308,10 +2308,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18771443705893243</v>
+        <v>0.74198959480922211</v>
       </c>
       <c r="B17" s="2">
         <v>244</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72046841652854443</v>
+        <v>0.78753217490542438</v>
       </c>
       <c r="B18" s="2">
         <v>49</v>
@@ -2356,10 +2356,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15377448192234444</v>
+        <v>0.54964486350460007</v>
       </c>
       <c r="B19" s="2">
         <v>196</v>
@@ -2383,10 +2383,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68918218584206148</v>
+        <v>0.50276589336534472</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -2407,10 +2407,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94148096167768403</v>
+        <v>2.0724754183990335E-2</v>
       </c>
       <c r="B21" s="2">
         <v>119</v>
@@ -2431,10 +2431,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11322373693157228</v>
+        <v>0.25868380598686835</v>
       </c>
       <c r="B22" s="2">
         <v>162</v>
@@ -2455,10 +2455,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57379959852920515</v>
+        <v>0.96637735398584934</v>
       </c>
       <c r="B23" s="2">
         <v>185</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60600527742441179</v>
+        <v>1.1092419071852988E-2</v>
       </c>
       <c r="B24" s="2">
         <v>181</v>
@@ -2503,10 +2503,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.056409146176009E-2</v>
+        <v>0.21660227353981376</v>
       </c>
       <c r="B25" s="2">
         <v>176</v>
@@ -2527,10 +2527,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6833930178510101E-2</v>
+        <v>0.90635664899925672</v>
       </c>
       <c r="B26" s="2">
         <v>237</v>
@@ -2551,10 +2551,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78167084015852917</v>
+        <v>0.9398977071521295</v>
       </c>
       <c r="B27" s="2">
         <v>134</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45116391255278743</v>
+        <v>0.56826642677658123</v>
       </c>
       <c r="B28" s="2">
         <v>300</v>
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25748936761124741</v>
+        <v>0.19255646141181437</v>
       </c>
       <c r="B29" s="2">
         <v>122</v>
@@ -2617,10 +2617,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84669227499412347</v>
+        <v>0.80429944254368468</v>
       </c>
       <c r="B30" s="2">
         <v>203</v>
@@ -2638,10 +2638,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17809664038918327</v>
+        <v>0.9780429106250379</v>
       </c>
       <c r="B31" s="2">
         <v>241</v>
@@ -2662,10 +2662,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41089582575900241</v>
+        <v>0.31765165659091776</v>
       </c>
       <c r="B32" s="2">
         <v>142</v>
@@ -2686,10 +2686,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7885024800517946E-2</v>
+        <v>0.25558786018352342</v>
       </c>
       <c r="B33" s="2">
         <v>183</v>
@@ -2707,10 +2707,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21371320724327691</v>
+        <v>0.65387009459248946</v>
       </c>
       <c r="B34" s="2">
         <v>48</v>
@@ -2731,10 +2731,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2686361148238694</v>
+        <v>0.25002155557181749</v>
       </c>
       <c r="B35" s="2">
         <v>107</v>
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13030568287978295</v>
+        <v>0.43828855741259398</v>
       </c>
       <c r="B36" s="2">
         <v>163</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16565955550036449</v>
+        <v>0.63846875587926455</v>
       </c>
       <c r="B37" s="2">
         <v>303</v>
@@ -2797,10 +2797,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42723610124515921</v>
+        <v>0.95669218680386003</v>
       </c>
       <c r="B38" s="2">
         <v>255</v>
@@ -2821,10 +2821,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83889867071054169</v>
+        <v>0.83249254907576209</v>
       </c>
       <c r="B39" s="2">
         <v>156</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23757536818660019</v>
+        <v>3.4091097691866246E-3</v>
       </c>
       <c r="B40" s="2">
         <v>280</v>
@@ -2863,10 +2863,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8833300590102372</v>
+        <v>0.86357659286889221</v>
       </c>
       <c r="B41" s="2">
         <v>66</v>
@@ -2890,10 +2890,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1732629702045525E-2</v>
+        <v>0.20401829923347237</v>
       </c>
       <c r="B42" s="2">
         <v>164</v>
@@ -2914,10 +2914,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64501876164936311</v>
+        <v>0.64291404607414149</v>
       </c>
       <c r="B43" s="2">
         <v>167</v>
@@ -2938,10 +2938,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24157415845133345</v>
+        <v>0.31007292874461945</v>
       </c>
       <c r="B44" s="2">
         <v>53</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66576441924767427</v>
+        <v>0.99791614769455239</v>
       </c>
       <c r="B45" s="2">
         <v>158</v>
@@ -2983,10 +2983,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76461013372179376</v>
+        <v>0.49681914845904218</v>
       </c>
       <c r="B46" s="2">
         <v>251</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23946181869835592</v>
+        <v>0.54967217896536491</v>
       </c>
       <c r="B47" s="2">
         <v>11</v>
@@ -3025,10 +3025,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89538464742865076</v>
+        <v>0.86394112562939518</v>
       </c>
       <c r="B48" s="2">
         <v>171</v>
@@ -3049,10 +3049,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26717686046465927</v>
+        <v>1.9598604298734279E-2</v>
       </c>
       <c r="B49" s="2">
         <v>152</v>
@@ -3073,10 +3073,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82309170252715669</v>
+        <v>0.2430761073083304</v>
       </c>
       <c r="B50" s="2">
         <v>290</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61957309750161127</v>
+        <v>0.23806338993001552</v>
       </c>
       <c r="B51" s="2">
         <v>129</v>
@@ -3118,10 +3118,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57443544506228161</v>
+        <v>0.13204276655342828</v>
       </c>
       <c r="B52" s="2">
         <v>243</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4464873947246715E-2</v>
+        <v>0.16541775609648235</v>
       </c>
       <c r="B53" s="2">
         <v>150</v>
@@ -3163,10 +3163,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54847695317216916</v>
+        <v>0.28055706279040515</v>
       </c>
       <c r="B54" s="2">
         <v>103</v>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17534467627087791</v>
+        <v>0.48294062632241286</v>
       </c>
       <c r="B55" s="2">
         <v>76</v>
@@ -3211,10 +3211,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69688731807570936</v>
+        <v>0.23025428016470662</v>
       </c>
       <c r="B56" s="2">
         <v>120</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32522418027699851</v>
+        <v>0.28305210930722424</v>
       </c>
       <c r="B57" s="2">
         <v>264</v>
@@ -3256,10 +3256,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50555666535344779</v>
+        <v>0.20814395455336965</v>
       </c>
       <c r="B58" s="2">
         <v>195</v>
@@ -3283,10 +3283,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1023798997543834E-2</v>
+        <v>8.2598636450170293E-2</v>
       </c>
       <c r="B59" s="2">
         <v>85</v>
@@ -3304,10 +3304,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5211115797080762</v>
+        <v>0.6554676317478646</v>
       </c>
       <c r="B60" s="2">
         <v>91</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51237801501874702</v>
+        <v>0.76910011564039282</v>
       </c>
       <c r="B61" s="2">
         <v>278</v>
@@ -3346,10 +3346,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68486638254361121</v>
+        <v>0.3920092855059728</v>
       </c>
       <c r="B62" s="2">
         <v>228</v>
@@ -3367,10 +3367,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63327419129570828</v>
+        <v>0.87142139442386968</v>
       </c>
       <c r="B63" s="2">
         <v>35</v>
@@ -3388,10 +3388,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96398614651309988</v>
+        <v>0.45550083042652001</v>
       </c>
       <c r="B64" s="2">
         <v>70</v>
@@ -3412,10 +3412,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3220375579398197</v>
+        <v>0.6878193929143358</v>
       </c>
       <c r="B65" s="2">
         <v>214</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.41768973100129236</v>
+        <v>0.87721978023057845</v>
       </c>
       <c r="B66" s="2">
         <v>95</v>
@@ -3457,10 +3457,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27968051873874833</v>
+        <v>0.65196441307812281</v>
       </c>
       <c r="B67" s="2">
         <v>210</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48133090806369661</v>
+        <v>0.46706505148268007</v>
       </c>
       <c r="B68" s="2">
         <v>97</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95325897540308602</v>
+        <v>0.68624258850935294</v>
       </c>
       <c r="B69" s="2">
         <v>226</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46319769797820431</v>
+        <v>0.59501060387755078</v>
       </c>
       <c r="B70" s="2">
         <v>178</v>
@@ -3541,10 +3541,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61184034015506039</v>
+        <v>0.76339596547771083</v>
       </c>
       <c r="B71" s="2">
         <v>304</v>
@@ -3565,10 +3565,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94684267466040595</v>
+        <v>0.63617553840481111</v>
       </c>
       <c r="B72" s="2">
         <v>19</v>
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5360411670154117E-2</v>
+        <v>0.1229938836285569</v>
       </c>
       <c r="B73" s="2">
         <v>151</v>
@@ -3610,10 +3610,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64281120393809565</v>
+        <v>0.6699749335060553</v>
       </c>
       <c r="B74" s="2">
         <v>238</v>
@@ -3631,10 +3631,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5114162900326128</v>
+        <v>0.83962689743601826</v>
       </c>
       <c r="B75" s="2">
         <v>59</v>
@@ -3652,10 +3652,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78913256171910762</v>
+        <v>0.25208538994590446</v>
       </c>
       <c r="B76" s="2">
         <v>52</v>
@@ -3676,10 +3676,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55149135149874617</v>
+        <v>0.92577657861904472</v>
       </c>
       <c r="B77" s="2">
         <v>263</v>
@@ -3700,10 +3700,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47981603077828716</v>
+        <v>0.68058144595552816</v>
       </c>
       <c r="B78" s="2">
         <v>189</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.721753894070715</v>
+        <v>0.79871139798495816</v>
       </c>
       <c r="B79" s="2">
         <v>13</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32101540485081415</v>
+        <v>0.49392603690625481</v>
       </c>
       <c r="B80" s="2">
         <v>211</v>
@@ -3763,10 +3763,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97961173031729787</v>
+        <v>0.74462939239510362</v>
       </c>
       <c r="B81" s="2">
         <v>191</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78866609634041895</v>
+        <v>0.69201866673908485</v>
       </c>
       <c r="B82" s="2">
         <v>138</v>
@@ -3808,10 +3808,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33505458187999371</v>
+        <v>0.72968251475336399</v>
       </c>
       <c r="B83" s="2">
         <v>172</v>
@@ -3835,10 +3835,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2135472752025236E-2</v>
+        <v>9.2369311851555169E-2</v>
       </c>
       <c r="B84" s="2">
         <v>27</v>
@@ -3859,10 +3859,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43989758310810734</v>
+        <v>0.59223341287808895</v>
       </c>
       <c r="B85" s="2">
         <v>63</v>
@@ -3883,10 +3883,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23490917612747098</v>
+        <v>0.11291789573497635</v>
       </c>
       <c r="B86" s="2">
         <v>236</v>
@@ -3904,10 +3904,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91890941823552852</v>
+        <v>0.58575968291263369</v>
       </c>
       <c r="B87" s="2">
         <v>239</v>
@@ -3925,10 +3925,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64582426376636981</v>
+        <v>0.48943903345849804</v>
       </c>
       <c r="B88" s="2">
         <v>268</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29103187803420538</v>
+        <v>0.5617942494575614</v>
       </c>
       <c r="B89" s="2">
         <v>9</v>
@@ -3967,10 +3967,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30579668732134746</v>
+        <v>0.94984358345116582</v>
       </c>
       <c r="B90" s="2">
         <v>75</v>
@@ -3991,10 +3991,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8067432475077273</v>
+        <v>0.59395349036137424</v>
       </c>
       <c r="B91" s="2">
         <v>188</v>
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26248154169375537</v>
+        <v>8.8688328712821507E-3</v>
       </c>
       <c r="B92" s="2">
         <v>221</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14587679604570647</v>
+        <v>0.48840438705019629</v>
       </c>
       <c r="B93" s="2">
         <v>94</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38076968201280115</v>
+        <v>0.51175199894194445</v>
       </c>
       <c r="B94" s="2">
         <v>28</v>
@@ -4078,10 +4078,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79748748312676665</v>
+        <v>4.9434496675863193E-2</v>
       </c>
       <c r="B95" s="2">
         <v>200</v>
@@ -4099,10 +4099,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81911672834420335</v>
+        <v>0.555984784509438</v>
       </c>
       <c r="B96" s="2">
         <v>26</v>
@@ -4126,10 +4126,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3540509474173223E-2</v>
+        <v>0.34512198166065333</v>
       </c>
       <c r="B97" s="2">
         <v>83</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14570585418624071</v>
+        <v>0.38264591891625099</v>
       </c>
       <c r="B98" s="2">
         <v>259</v>
@@ -4171,10 +4171,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74978918174047848</v>
+        <v>0.62063661160480066</v>
       </c>
       <c r="B99" s="2">
         <v>60</v>
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23344590710782942</v>
+        <v>0.64073039592184233</v>
       </c>
       <c r="B100" s="2">
         <v>93</v>
@@ -4216,10 +4216,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12522805157693251</v>
+        <v>0.51058033893185861</v>
       </c>
       <c r="B101" s="2">
         <v>135</v>
@@ -4240,10 +4240,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81313876519411044</v>
+        <v>0.9146583344764283</v>
       </c>
       <c r="B102" s="2">
         <v>180</v>
@@ -4264,10 +4264,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5135330673199201E-2</v>
+        <v>0.5508475310045341</v>
       </c>
       <c r="B103" s="2">
         <v>182</v>
@@ -4288,10 +4288,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9493575821091134E-2</v>
+        <v>0.32069254133390701</v>
       </c>
       <c r="B104" s="2">
         <v>154</v>
@@ -4312,10 +4312,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89121845421019874</v>
+        <v>6.0401612897356793E-2</v>
       </c>
       <c r="B105" s="2">
         <v>37</v>
@@ -4336,10 +4336,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4083381460839508</v>
+        <v>0.19028165328066737</v>
       </c>
       <c r="B106" s="2">
         <v>273</v>
@@ -4360,10 +4360,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18003363833942054</v>
+        <v>0.17855445294976702</v>
       </c>
       <c r="B107" s="2">
         <v>250</v>
@@ -4381,10 +4381,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4765309305604997E-2</v>
+        <v>0.1657771229922429</v>
       </c>
       <c r="B108" s="2">
         <v>39</v>
@@ -4405,10 +4405,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5142662035555744</v>
+        <v>0.91873336220465585</v>
       </c>
       <c r="B109" s="2">
         <v>47</v>
@@ -4426,10 +4426,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61381772901235576</v>
+        <v>7.928733826049883E-2</v>
       </c>
       <c r="B110" s="2">
         <v>272</v>
@@ -4447,10 +4447,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0134617835032831E-2</v>
+        <v>0.68567634457884707</v>
       </c>
       <c r="B111" s="2">
         <v>297</v>
@@ -4468,10 +4468,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61487501602474881</v>
+        <v>0.90240045104423994</v>
       </c>
       <c r="B112" s="2">
         <v>302</v>
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80653498388046907</v>
+        <v>0.3025077533150885</v>
       </c>
       <c r="B113" s="2">
         <v>109</v>
@@ -4513,10 +4513,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37416829669479545</v>
+        <v>0.68656273571607207</v>
       </c>
       <c r="B114" s="2">
         <v>96</v>
@@ -4534,10 +4534,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4462061776710633</v>
+        <v>0.84135930120631619</v>
       </c>
       <c r="B115" s="2">
         <v>296</v>
@@ -4558,10 +4558,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72877724257561083</v>
+        <v>4.9834948603161733E-2</v>
       </c>
       <c r="B116" s="2">
         <v>254</v>
@@ -4579,10 +4579,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35021785408876749</v>
+        <v>0.63766556183712542</v>
       </c>
       <c r="B117" s="2">
         <v>54</v>
@@ -4603,10 +4603,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63214841104402597</v>
+        <v>0.99107821212612379</v>
       </c>
       <c r="B118" s="2">
         <v>105</v>
@@ -4624,10 +4624,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81410000480994293</v>
+        <v>0.86119868010826595</v>
       </c>
       <c r="B119" s="2">
         <v>159</v>
@@ -4645,10 +4645,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11024539468477457</v>
+        <v>0.97060619186917108</v>
       </c>
       <c r="B120" s="2">
         <v>101</v>
@@ -4669,10 +4669,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0576966886338197E-2</v>
+        <v>0.19658754725865402</v>
       </c>
       <c r="B121" s="2">
         <v>18</v>
@@ -4690,10 +4690,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24575964296391639</v>
+        <v>0.77936753547638249</v>
       </c>
       <c r="B122" s="2">
         <v>137</v>
@@ -4714,10 +4714,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81759351903971611</v>
+        <v>0.70480148320354929</v>
       </c>
       <c r="B123" s="2">
         <v>55</v>
@@ -4738,10 +4738,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99703842029377676</v>
+        <v>0.69639961978475307</v>
       </c>
       <c r="B124" s="2">
         <v>253</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89889605025742081</v>
+        <v>0.34594681235655833</v>
       </c>
       <c r="B125" s="2">
         <v>32</v>
@@ -4783,10 +4783,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2626436145262643E-2</v>
+        <v>0.79740262140878582</v>
       </c>
       <c r="B126" s="2">
         <v>215</v>
@@ -4810,10 +4810,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4622502033071515</v>
+        <v>0.4318797101427071</v>
       </c>
       <c r="B127" s="2">
         <v>130</v>
@@ -4837,10 +4837,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4523773289831865</v>
+        <v>0.67488346229955143</v>
       </c>
       <c r="B128" s="2">
         <v>112</v>
@@ -4858,10 +4858,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85993138638492594</v>
+        <v>0.65762865093203793</v>
       </c>
       <c r="B129" s="2">
         <v>299</v>
@@ -4879,10 +4879,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.18720864902493506</v>
+        <v>6.3481012899069489E-2</v>
       </c>
       <c r="B130" s="2">
         <v>206</v>
@@ -4903,10 +4903,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45550927819405651</v>
+        <v>0.64269549026708139</v>
       </c>
       <c r="B131" s="2">
         <v>267</v>
@@ -4927,10 +4927,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45276567078974328</v>
+        <v>0.32832044688304407</v>
       </c>
       <c r="B132" s="2">
         <v>65</v>
@@ -4948,10 +4948,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87179719080717777</v>
+        <v>0.81357844203484853</v>
       </c>
       <c r="B133" s="2">
         <v>153</v>
@@ -4969,10 +4969,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59577655699614163</v>
+        <v>0.79229511284810872</v>
       </c>
       <c r="B134" s="2">
         <v>81</v>
@@ -4990,10 +4990,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15989855221632032</v>
+        <v>0.55144770750699013</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
@@ -5011,10 +5011,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81764650507548531</v>
+        <v>0.43266922850124578</v>
       </c>
       <c r="B136" s="2">
         <v>131</v>
@@ -5035,10 +5035,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80526253364213196</v>
+        <v>0.30377025694697324</v>
       </c>
       <c r="B137" s="2">
         <v>197</v>
@@ -5059,10 +5059,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56012966868465575</v>
+        <v>0.7064825617836763</v>
       </c>
       <c r="B138" s="2">
         <v>209</v>
@@ -5080,10 +5080,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76380112797749111</v>
+        <v>0.71734226688559455</v>
       </c>
       <c r="B139" s="2">
         <v>57</v>
@@ -5101,10 +5101,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78958344084141985</v>
+        <v>0.84038599708656969</v>
       </c>
       <c r="B140" s="2">
         <v>285</v>
@@ -5122,10 +5122,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27464331877251946</v>
+        <v>0.23304008209010574</v>
       </c>
       <c r="B141" s="2">
         <v>121</v>
@@ -5143,10 +5143,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71243006307474277</v>
+        <v>0.50349574609407377</v>
       </c>
       <c r="B142" s="2">
         <v>235</v>
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51609304904305142</v>
+        <v>0.83091117544917314</v>
       </c>
       <c r="B143" s="2">
         <v>117</v>
@@ -5191,10 +5191,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98878454438127383</v>
+        <v>0.78542198528506402</v>
       </c>
       <c r="B144" s="2">
         <v>177</v>
@@ -5212,10 +5212,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13390421745282399</v>
+        <v>0.91143008676709569</v>
       </c>
       <c r="B145" s="2">
         <v>160</v>
@@ -5233,10 +5233,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19549071979394717</v>
+        <v>0.37473591268147066</v>
       </c>
       <c r="B146" s="2">
         <v>12</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2150413917679812</v>
+        <v>0.49666434278468641</v>
       </c>
       <c r="B147" s="2">
         <v>287</v>
@@ -5275,10 +5275,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85925860167372625</v>
+        <v>0.68792507748666987</v>
       </c>
       <c r="B148" s="2">
         <v>29</v>
@@ -5299,10 +5299,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66577002483347325</v>
+        <v>7.8539866572514216E-2</v>
       </c>
       <c r="B149" s="2">
         <v>4</v>
@@ -5320,10 +5320,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44735812869101954</v>
+        <v>8.5491769497903713E-2</v>
       </c>
       <c r="B150" s="2">
         <v>115</v>
@@ -5347,10 +5347,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8741404794151123</v>
+        <v>4.5632748685568991E-2</v>
       </c>
       <c r="B151" s="2">
         <v>43</v>
@@ -5368,10 +5368,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48423699245376794</v>
+        <v>0.3510851258617218</v>
       </c>
       <c r="B152" s="2">
         <v>41</v>
@@ -5392,10 +5392,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12261218612976976</v>
+        <v>5.2212115296780048E-2</v>
       </c>
       <c r="B153" s="2">
         <v>62</v>
@@ -5413,10 +5413,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59249297817805613</v>
+        <v>0.53905845021940801</v>
       </c>
       <c r="B154" s="2">
         <v>246</v>
@@ -5434,10 +5434,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6016518639942419E-2</v>
+        <v>0.80087329810646679</v>
       </c>
       <c r="B155" s="2">
         <v>283</v>
@@ -5455,10 +5455,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17496292699567417</v>
+        <v>0.12669298473845658</v>
       </c>
       <c r="B156" s="2">
         <v>155</v>
@@ -5479,10 +5479,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83527741092447005</v>
+        <v>0.63993227439652411</v>
       </c>
       <c r="B157" s="2">
         <v>128</v>
@@ -5503,10 +5503,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16563899323021758</v>
+        <v>0.33507529062164176</v>
       </c>
       <c r="B158" s="2">
         <v>61</v>
@@ -5530,10 +5530,10 @@
         <v>321</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22370416014011441</v>
+        <v>0.86495883651882954</v>
       </c>
       <c r="B159" s="2">
         <v>248</v>
@@ -5554,10 +5554,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36651031248954014</v>
+        <v>0.40744439085234008</v>
       </c>
       <c r="B160" s="2">
         <v>42</v>
@@ -5575,10 +5575,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2900643203978026E-2</v>
+        <v>2.3299346465965098E-2</v>
       </c>
       <c r="B161" s="2">
         <v>199</v>
@@ -5599,10 +5599,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57459914238537346</v>
+        <v>0.62580963168969372</v>
       </c>
       <c r="B162" s="2">
         <v>140</v>
@@ -5626,10 +5626,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87012063914502158</v>
+        <v>0.98293036419680679</v>
       </c>
       <c r="B163" s="2">
         <v>67</v>
@@ -5650,10 +5650,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15379174335788737</v>
+        <v>0.18717431653904915</v>
       </c>
       <c r="B164" s="2">
         <v>139</v>
@@ -5674,10 +5674,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40913607768409077</v>
+        <v>0.60285414433729834</v>
       </c>
       <c r="B165" s="2">
         <v>80</v>
@@ -5698,10 +5698,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31381332974186338</v>
+        <v>0.3199109604324808</v>
       </c>
       <c r="B166" s="2">
         <v>240</v>
@@ -5719,10 +5719,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24939586145298076</v>
+        <v>0.45827318294242336</v>
       </c>
       <c r="B167" s="2">
         <v>72</v>
@@ -5740,10 +5740,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1088264787679516</v>
+        <v>0.97760916070483117</v>
       </c>
       <c r="B168" s="2">
         <v>217</v>
@@ -5761,10 +5761,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81975080241687648</v>
+        <v>0.9505108783421744</v>
       </c>
       <c r="B169" s="2">
         <v>184</v>
@@ -5782,10 +5782,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33775232313434633</v>
+        <v>0.90250550272250341</v>
       </c>
       <c r="B170" s="2">
         <v>276</v>
@@ -5803,10 +5803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50188690713814565</v>
+        <v>0.56131204637021559</v>
       </c>
       <c r="B171" s="2">
         <v>40</v>
@@ -5827,10 +5827,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5948287121466751</v>
+        <v>0.75225516464745223</v>
       </c>
       <c r="B172" s="2">
         <v>44</v>
@@ -5848,10 +5848,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.627951941299647E-2</v>
+        <v>0.23489650741600121</v>
       </c>
       <c r="B173" s="2">
         <v>69</v>
@@ -5872,10 +5872,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52682527761886211</v>
+        <v>0.1762793031672073</v>
       </c>
       <c r="B174" s="2">
         <v>169</v>
@@ -5896,10 +5896,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0582045954002099E-2</v>
+        <v>0.56222559645368086</v>
       </c>
       <c r="B175" s="2">
         <v>232</v>
@@ -5917,10 +5917,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29709689190512611</v>
+        <v>8.021339029805219E-2</v>
       </c>
       <c r="B176" s="2">
         <v>133</v>
@@ -5941,10 +5941,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28804220344930642</v>
+        <v>0.43493773071351094</v>
       </c>
       <c r="B177" s="2">
         <v>141</v>
@@ -5965,10 +5965,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80479806761507122</v>
+        <v>0.99504091679982509</v>
       </c>
       <c r="B178" s="2">
         <v>242</v>
@@ -5989,10 +5989,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34361008613461219</v>
+        <v>0.73859515788434627</v>
       </c>
       <c r="B179" s="2">
         <v>227</v>
@@ -6013,10 +6013,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6277691034265933E-2</v>
+        <v>0.95694415414736089</v>
       </c>
       <c r="B180" s="2">
         <v>73</v>
@@ -6034,10 +6034,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59531013724595372</v>
+        <v>0.84796880778868822</v>
       </c>
       <c r="B181" s="2">
         <v>219</v>
@@ -6055,10 +6055,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19135815845320037</v>
+        <v>0.41978679499686544</v>
       </c>
       <c r="B182" s="2">
         <v>14</v>
@@ -6076,10 +6076,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56369715219023186</v>
+        <v>0.87790260869422831</v>
       </c>
       <c r="B183" s="2">
         <v>157</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8089885361287702</v>
+        <v>0.15750076413813174</v>
       </c>
       <c r="B184" s="2">
         <v>92</v>
@@ -6118,10 +6118,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7123672049751031E-2</v>
+        <v>0.26324750657853213</v>
       </c>
       <c r="B185" s="2">
         <v>222</v>
@@ -6145,10 +6145,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52085641636845714</v>
+        <v>9.0313220472767464E-3</v>
       </c>
       <c r="B186" s="2">
         <v>10</v>
@@ -6166,10 +6166,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99025698543845297</v>
+        <v>0.77907754159303388</v>
       </c>
       <c r="B187" s="2">
         <v>17</v>
@@ -6187,10 +6187,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62361240164252985</v>
+        <v>6.2744014659257941E-2</v>
       </c>
       <c r="B188" s="2">
         <v>79</v>
@@ -6211,10 +6211,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4135162012417064E-2</v>
+        <v>0.79384171468928588</v>
       </c>
       <c r="B189" s="2">
         <v>108</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56469902425957608</v>
+        <v>0.77428405662458299</v>
       </c>
       <c r="B190" s="2">
         <v>146</v>
@@ -6256,10 +6256,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80293898661999763</v>
+        <v>0.56549228846932542</v>
       </c>
       <c r="B191" s="2">
         <v>116</v>
@@ -6280,10 +6280,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54201176879697455</v>
+        <v>9.2395475316242925E-2</v>
       </c>
       <c r="B192" s="2">
         <v>6</v>
@@ -6301,10 +6301,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73735922049172176</v>
+        <v>0.28826543337687993</v>
       </c>
       <c r="B193" s="2">
         <v>260</v>
@@ -6325,10 +6325,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.44950691505259521</v>
+        <v>0.57830037838569548</v>
       </c>
       <c r="B194" s="2">
         <v>218</v>
@@ -6349,10 +6349,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70701459554172563</v>
+        <v>0.80574581563608061</v>
       </c>
       <c r="B195" s="2">
         <v>173</v>
@@ -6370,10 +6370,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76724820363705259</v>
+        <v>0.50234889547839401</v>
       </c>
       <c r="B196" s="2">
         <v>282</v>
@@ -6391,10 +6391,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47061946255150588</v>
+        <v>0.38845901709331132</v>
       </c>
       <c r="B197" s="2">
         <v>22</v>
@@ -6412,10 +6412,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99857591590869854</v>
+        <v>0.8874792547620366</v>
       </c>
       <c r="B198" s="2">
         <v>262</v>
@@ -6436,10 +6436,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20730715226537255</v>
+        <v>0.35435563672593806</v>
       </c>
       <c r="B199" s="2">
         <v>21</v>
@@ -6457,10 +6457,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66014561123523896</v>
+        <v>0.34232552374435476</v>
       </c>
       <c r="B200" s="2">
         <v>301</v>
@@ -6478,10 +6478,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2783516996020148E-2</v>
+        <v>0.66469762762617168</v>
       </c>
       <c r="B201" s="2">
         <v>144</v>
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24713517483151426</v>
+        <v>0.76100478650226522</v>
       </c>
       <c r="B202" s="2">
         <v>15</v>
@@ -6520,10 +6520,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7126724251673626E-2</v>
+        <v>0.91628782810604292</v>
       </c>
       <c r="B203" s="2">
         <v>106</v>
@@ -6541,10 +6541,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88328265403033768</v>
+        <v>7.5950884144864617E-2</v>
       </c>
       <c r="B204" s="2">
         <v>166</v>
@@ -6562,10 +6562,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76642606465912488</v>
+        <v>0.72041928829443169</v>
       </c>
       <c r="B205" s="2">
         <v>84</v>
@@ -6583,10 +6583,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75978952783252252</v>
+        <v>0.28139726967039191</v>
       </c>
       <c r="B206" s="2">
         <v>127</v>
@@ -6607,10 +6607,10 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28135047854757289</v>
+        <v>0.85112768542368389</v>
       </c>
       <c r="B207" s="2">
         <v>277</v>
@@ -6628,10 +6628,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92955551279614335</v>
+        <v>4.9078203269046439E-2</v>
       </c>
       <c r="B208" s="2">
         <v>111</v>
@@ -6652,10 +6652,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79809349076919367</v>
+        <v>0.83666149984999083</v>
       </c>
       <c r="B209" s="2">
         <v>104</v>
@@ -6673,10 +6673,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63580268333279322</v>
+        <v>0.98770534368722507</v>
       </c>
       <c r="B210" s="2">
         <v>216</v>
@@ -6697,10 +6697,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59479152198295726</v>
+        <v>0.85884445429430367</v>
       </c>
       <c r="B211" s="2">
         <v>34</v>
@@ -6721,10 +6721,10 @@
         <v>330</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76748491157440646</v>
+        <v>0.5670296920512673</v>
       </c>
       <c r="B212" s="2">
         <v>168</v>
@@ -6745,10 +6745,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84103702403645275</v>
+        <v>0.80654271608698991</v>
       </c>
       <c r="B213" s="2">
         <v>225</v>
@@ -6769,10 +6769,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63296918880828312</v>
+        <v>0.70095842937383901</v>
       </c>
       <c r="B214" s="2">
         <v>257</v>
@@ -6793,10 +6793,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12766760199277516</v>
+        <v>0.16877751746678027</v>
       </c>
       <c r="B215" s="2">
         <v>3</v>
@@ -6814,10 +6814,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6106156780627212E-2</v>
+        <v>0.51566639986061158</v>
       </c>
       <c r="B216" s="2">
         <v>249</v>
@@ -6838,10 +6838,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60263413842361768</v>
+        <v>0.14171535129152324</v>
       </c>
       <c r="B217" s="2">
         <v>148</v>
@@ -6859,10 +6859,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68755683536939638</v>
+        <v>1.0539703967400116E-2</v>
       </c>
       <c r="B218" s="2">
         <v>274</v>
@@ -6880,10 +6880,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43072670783570555</v>
+        <v>7.0911682168205203E-2</v>
       </c>
       <c r="B219" s="2">
         <v>275</v>
@@ -6901,10 +6901,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62479090840179852</v>
+        <v>0.96660197511315427</v>
       </c>
       <c r="B220" s="2">
         <v>86</v>
@@ -6922,10 +6922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65399790297821403</v>
+        <v>2.8609785992408376E-2</v>
       </c>
       <c r="B221" s="2">
         <v>143</v>
@@ -6943,10 +6943,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72563854045302112</v>
+        <v>0.58651794954478775</v>
       </c>
       <c r="B222" s="2">
         <v>30</v>
@@ -6970,10 +6970,10 @@
         <v>330</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71523695488788053</v>
+        <v>0.6699511468167596</v>
       </c>
       <c r="B223" s="2">
         <v>252</v>
@@ -6994,10 +6994,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87744984894914535</v>
+        <v>0.72442810685154269</v>
       </c>
       <c r="B224" s="2">
         <v>7</v>
@@ -7015,10 +7015,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20818176317165116</v>
+        <v>0.342599885823479</v>
       </c>
       <c r="B225" s="2">
         <v>247</v>
@@ -7039,10 +7039,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90215900519548531</v>
+        <v>0.54789884303998349</v>
       </c>
       <c r="B226" s="2">
         <v>102</v>
@@ -7063,10 +7063,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53422204055645606</v>
+        <v>0.11979396914670737</v>
       </c>
       <c r="B227" s="2">
         <v>284</v>
@@ -7084,10 +7084,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10189177248305747</v>
+        <v>0.14543523897176247</v>
       </c>
       <c r="B228" s="2">
         <v>123</v>
@@ -7108,10 +7108,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65768645157045935</v>
+        <v>0.8418108951908192</v>
       </c>
       <c r="B229" s="2">
         <v>113</v>
@@ -7132,10 +7132,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18019747472869929</v>
+        <v>0.22725134956301307</v>
       </c>
       <c r="B230" s="2">
         <v>88</v>
@@ -7156,10 +7156,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95299362768030671</v>
+        <v>0.42774561062951155</v>
       </c>
       <c r="B231" s="2">
         <v>125</v>
@@ -7180,10 +7180,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28167404154849318</v>
+        <v>0.95318535571646068</v>
       </c>
       <c r="B232" s="2">
         <v>223</v>
@@ -7204,10 +7204,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1509888197130538E-2</v>
+        <v>0.63364265098457517</v>
       </c>
       <c r="B233" s="2">
         <v>124</v>
@@ -7228,10 +7228,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97750275079992555</v>
+        <v>0.10878253388817705</v>
       </c>
       <c r="B234" s="2">
         <v>33</v>
@@ -7252,10 +7252,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34421686393320594</v>
+        <v>0.86647810328334007</v>
       </c>
       <c r="B235" s="2">
         <v>100</v>
@@ -7273,10 +7273,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2402200974902865</v>
+        <v>0.2367358316283158</v>
       </c>
       <c r="B236" s="2">
         <v>231</v>
@@ -7297,10 +7297,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20871236914953839</v>
+        <v>0.311150848864026</v>
       </c>
       <c r="B237" s="2">
         <v>89</v>
@@ -7318,10 +7318,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19883708854536442</v>
+        <v>5.1082732916976292E-2</v>
       </c>
       <c r="B238" s="2">
         <v>161</v>
@@ -7342,10 +7342,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12317177309054639</v>
+        <v>0.34521705989333962</v>
       </c>
       <c r="B239" s="2">
         <v>265</v>
@@ -7366,10 +7366,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54930699353246382</v>
+        <v>0.38544551934491778</v>
       </c>
       <c r="B240" s="2">
         <v>271</v>
@@ -7390,10 +7390,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86425662813922921</v>
+        <v>0.1406008924807195</v>
       </c>
       <c r="B241" s="2">
         <v>25</v>
@@ -7411,10 +7411,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79552216518159735</v>
+        <v>0.95371784468188903</v>
       </c>
       <c r="B242" s="2">
         <v>68</v>
@@ -7444,10 +7444,10 @@
         <v>334</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96342548436759401</v>
+        <v>0.57265122831067106</v>
       </c>
       <c r="B243" s="2">
         <v>71</v>
@@ -7465,10 +7465,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83011565324033443</v>
+        <v>0.70407494689573469</v>
       </c>
       <c r="B244" s="2">
         <v>270</v>
@@ -7489,10 +7489,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16260896063643626</v>
+        <v>0.62933901828250938</v>
       </c>
       <c r="B245" s="2">
         <v>126</v>
@@ -7513,10 +7513,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2438242673517674E-2</v>
+        <v>0.25129150044101423</v>
       </c>
       <c r="B246" s="2">
         <v>279</v>
@@ -7534,10 +7534,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90686099031458656</v>
+        <v>0.10285782565710011</v>
       </c>
       <c r="B247" s="2">
         <v>205</v>
@@ -7558,10 +7558,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13291606928838828</v>
+        <v>9.4442572202183994E-2</v>
       </c>
       <c r="B248" s="2">
         <v>258</v>
@@ -7582,10 +7582,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11371071873388483</v>
+        <v>0.78357475495860029</v>
       </c>
       <c r="B249" s="2">
         <v>78</v>
@@ -7606,10 +7606,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72056680320241329</v>
+        <v>8.1600642378756638E-2</v>
       </c>
       <c r="B250" s="2">
         <v>298</v>
@@ -7627,10 +7627,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83639103231426026</v>
+        <v>0.18517620433594617</v>
       </c>
       <c r="B251" s="2">
         <v>51</v>
@@ -7651,10 +7651,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4922755802292349</v>
+        <v>6.628250744337727E-2</v>
       </c>
       <c r="B252" s="2">
         <v>174</v>
@@ -7675,10 +7675,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72866804073080182</v>
+        <v>2.1099760718588545E-2</v>
       </c>
       <c r="B253" s="2">
         <v>201</v>
@@ -7696,10 +7696,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.4178710125905822E-2</v>
+        <v>0.8283400681195513</v>
       </c>
       <c r="B254" s="2">
         <v>45</v>
@@ -7720,10 +7720,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56742083283619216</v>
+        <v>0.65904326668974755</v>
       </c>
       <c r="B255" s="2">
         <v>193</v>
@@ -7741,10 +7741,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8228914736266858</v>
+        <v>0.24034383212386268</v>
       </c>
       <c r="B256" s="2">
         <v>58</v>
@@ -7765,10 +7765,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79428021370497226</v>
+        <v>0.5757525750512823</v>
       </c>
       <c r="B257" s="2">
         <v>198</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A305" ca="1" si="4">RAND()</f>
-        <v>0.16802525776218358</v>
+        <v>0.71418959905593404</v>
       </c>
       <c r="B258" s="2">
         <v>208</v>
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86914832765127059</v>
+        <v>0.9922052683321082</v>
       </c>
       <c r="B259" s="2">
         <v>118</v>
@@ -7828,10 +7828,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38485408989652048</v>
+        <v>0.85278668497757415</v>
       </c>
       <c r="B260" s="2">
         <v>36</v>
@@ -7849,10 +7849,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79996836821254558</v>
+        <v>0.76301739773150445</v>
       </c>
       <c r="B261" s="2">
         <v>187</v>
@@ -7870,10 +7870,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88906654350842373</v>
+        <v>0.54053941272314987</v>
       </c>
       <c r="B262" s="2">
         <v>207</v>
@@ -7894,10 +7894,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9968066829159633</v>
+        <v>1.0984753511097289E-2</v>
       </c>
       <c r="B263" s="2">
         <v>269</v>
@@ -7918,10 +7918,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35815136321134322</v>
+        <v>0.18970483791420678</v>
       </c>
       <c r="B264" s="2">
         <v>82</v>
@@ -7939,10 +7939,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75250938007238755</v>
+        <v>0.54571240559328371</v>
       </c>
       <c r="B265" s="2">
         <v>289</v>
@@ -7960,10 +7960,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38044938021118091</v>
+        <v>0.83235268300602905</v>
       </c>
       <c r="B266" s="2">
         <v>266</v>
@@ -7984,10 +7984,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52225750580518604</v>
+        <v>0.21581150744182498</v>
       </c>
       <c r="B267" s="2">
         <v>147</v>
@@ -8008,10 +8008,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98158623005051027</v>
+        <v>0.92645103788536598</v>
       </c>
       <c r="B268" s="2">
         <v>288</v>
@@ -8029,10 +8029,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4516696254873116E-2</v>
+        <v>0.94626384271047936</v>
       </c>
       <c r="B269" s="2">
         <v>204</v>
@@ -8053,10 +8053,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83413663077203271</v>
+        <v>0.69871806212666832</v>
       </c>
       <c r="B270" s="2">
         <v>50</v>
@@ -8074,10 +8074,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68972866981844516</v>
+        <v>0.46461549718020378</v>
       </c>
       <c r="B271" s="2">
         <v>220</v>
@@ -8095,10 +8095,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33081991179480841</v>
+        <v>0.22552278562549888</v>
       </c>
       <c r="B272" s="2">
         <v>213</v>
@@ -8119,10 +8119,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19475215104068633</v>
+        <v>0.89401247904452674</v>
       </c>
       <c r="B273" s="2">
         <v>261</v>
@@ -8143,10 +8143,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7755496172822034E-2</v>
+        <v>0.51363033790750134</v>
       </c>
       <c r="B274" s="2">
         <v>74</v>
@@ -8167,10 +8167,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74496524828876431</v>
+        <v>0.40655138476754482</v>
       </c>
       <c r="B275" s="2">
         <v>233</v>
@@ -8188,10 +8188,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94340186645727575</v>
+        <v>0.885929547181178</v>
       </c>
       <c r="B276" s="2">
         <v>8</v>
@@ -8209,10 +8209,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11702431760840193</v>
+        <v>0.20208431695610718</v>
       </c>
       <c r="B277" s="2">
         <v>202</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44881784659958446</v>
+        <v>0.51330501461268552</v>
       </c>
       <c r="B278" s="2">
         <v>245</v>
@@ -8254,10 +8254,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47689296423920247</v>
+        <v>0.40365453439518051</v>
       </c>
       <c r="B279" s="2">
         <v>291</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42149116281871879</v>
+        <v>0.31321483012301321</v>
       </c>
       <c r="B280" s="2">
         <v>212</v>
@@ -8299,10 +8299,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1087560389394715</v>
+        <v>2.3981777791716175E-2</v>
       </c>
       <c r="B281" s="2">
         <v>132</v>
@@ -8323,10 +8323,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69145869624429268</v>
+        <v>0.3886424349219405</v>
       </c>
       <c r="B282" s="2">
         <v>295</v>
@@ -8347,10 +8347,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21413130521836232</v>
+        <v>0.30995624993577442</v>
       </c>
       <c r="B283" s="2">
         <v>20</v>
@@ -8368,10 +8368,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7561432022147687E-2</v>
+        <v>9.4657420019086391E-2</v>
       </c>
       <c r="B284" s="2">
         <v>294</v>
@@ -8392,10 +8392,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82007993799368439</v>
+        <v>2.3254588193312609E-2</v>
       </c>
       <c r="B285" s="2">
         <v>145</v>
@@ -8416,10 +8416,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55989097156203727</v>
+        <v>0.24138317878950188</v>
       </c>
       <c r="B286" s="2">
         <v>56</v>
@@ -8440,10 +8440,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95329275395321067</v>
+        <v>0.51599760261557948</v>
       </c>
       <c r="B287" s="2">
         <v>64</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98561757825114138</v>
+        <v>0.44271806496292054</v>
       </c>
       <c r="B288" s="2">
         <v>24</v>
@@ -8485,10 +8485,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94284098201511035</v>
+        <v>0.77240348824697824</v>
       </c>
       <c r="B289" s="2">
         <v>230</v>
@@ -8509,10 +8509,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88338782466620769</v>
+        <v>0.53614369797260375</v>
       </c>
       <c r="B290" s="2">
         <v>99</v>
@@ -8533,10 +8533,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96005898749336727</v>
+        <v>0.74727863130940331</v>
       </c>
       <c r="B291" s="2">
         <v>224</v>
@@ -8557,10 +8557,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37418687679859597</v>
+        <v>0.31362297829291752</v>
       </c>
       <c r="B292" s="2">
         <v>293</v>
@@ -8578,10 +8578,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90856816129445706</v>
+        <v>0.97645821867712701</v>
       </c>
       <c r="B293" s="2">
         <v>31</v>
@@ -8599,10 +8599,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19066271047476113</v>
+        <v>0.86670079581796344</v>
       </c>
       <c r="B294" s="2">
         <v>46</v>
@@ -8620,10 +8620,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63669222294903627</v>
+        <v>0.47865345385981783</v>
       </c>
       <c r="B295" s="2">
         <v>98</v>
@@ -8641,10 +8641,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53965478481252371</v>
+        <v>0.14191480025822667</v>
       </c>
       <c r="B296" s="2">
         <v>281</v>
@@ -8662,10 +8662,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72397462423425119</v>
+        <v>0.23586330860989735</v>
       </c>
       <c r="B297" s="2">
         <v>16</v>
@@ -8683,10 +8683,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0500892390084808E-2</v>
+        <v>0.46727400565814226</v>
       </c>
       <c r="B298" s="2">
         <v>186</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33951087250093714</v>
+        <v>0.4674886862885379</v>
       </c>
       <c r="B299" s="2">
         <v>110</v>
@@ -8731,10 +8731,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71078707579690981</v>
+        <v>0.54422614405855607</v>
       </c>
       <c r="B300" s="2">
         <v>149</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38632828631340033</v>
+        <v>0.45710756684902487</v>
       </c>
       <c r="B301" s="2">
         <v>90</v>
@@ -8773,10 +8773,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22924173157614758</v>
+        <v>0.21189823667022867</v>
       </c>
       <c r="B302" s="2">
         <v>114</v>
@@ -8797,10 +8797,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81938308346426869</v>
+        <v>0.17333970097011042</v>
       </c>
       <c r="B303" s="2">
         <v>292</v>
@@ -8821,10 +8821,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38466000690413915</v>
+        <v>0.97119431113400223</v>
       </c>
       <c r="B304" s="2">
         <v>170</v>
@@ -8845,10 +8845,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63495668234788027</v>
+        <v>0.11182924085362356</v>
       </c>
       <c r="B305" s="2">
         <v>38</v>
@@ -8886,16 +8886,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>321</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>327</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>328</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>329</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>331</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>334</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>335</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>326</v>
       </c>
@@ -9052,9 +9052,9 @@
       <selection activeCell="C305" sqref="C2:L305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>336</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>blackcompany!B2</f>
         <v>5</v>
@@ -9142,7 +9142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>blackcompany!B3</f>
         <v>179</v>
@@ -9192,7 +9192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>blackcompany!B4</f>
         <v>256</v>
@@ -9242,7 +9242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>blackcompany!B5</f>
         <v>165</v>
@@ -9292,7 +9292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>blackcompany!B6</f>
         <v>194</v>
@@ -9342,7 +9342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>blackcompany!B7</f>
         <v>192</v>
@@ -9392,7 +9392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>blackcompany!B8</f>
         <v>229</v>
@@ -9442,7 +9442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>blackcompany!B9</f>
         <v>175</v>
@@ -9492,7 +9492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>blackcompany!B10</f>
         <v>23</v>
@@ -9542,7 +9542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>blackcompany!B11</f>
         <v>87</v>
@@ -9592,7 +9592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>blackcompany!B12</f>
         <v>190</v>
@@ -9642,7 +9642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>blackcompany!B13</f>
         <v>234</v>
@@ -9692,7 +9692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>blackcompany!B14</f>
         <v>136</v>
@@ -9742,7 +9742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>blackcompany!B15</f>
         <v>77</v>
@@ -9792,7 +9792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>blackcompany!B16</f>
         <v>286</v>
@@ -9842,7 +9842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>blackcompany!B17</f>
         <v>244</v>
@@ -9892,7 +9892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>blackcompany!B18</f>
         <v>49</v>
@@ -9942,7 +9942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>blackcompany!B19</f>
         <v>196</v>
@@ -9992,7 +9992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>blackcompany!B20</f>
         <v>2</v>
@@ -10042,7 +10042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>blackcompany!B21</f>
         <v>119</v>
@@ -10092,7 +10092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>blackcompany!B22</f>
         <v>162</v>
@@ -10142,7 +10142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>blackcompany!B23</f>
         <v>185</v>
@@ -10192,7 +10192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>blackcompany!B24</f>
         <v>181</v>
@@ -10242,7 +10242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>blackcompany!B25</f>
         <v>176</v>
@@ -10292,7 +10292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>blackcompany!B26</f>
         <v>237</v>
@@ -10342,7 +10342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>blackcompany!B27</f>
         <v>134</v>
@@ -10392,7 +10392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>blackcompany!B28</f>
         <v>300</v>
@@ -10442,7 +10442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>blackcompany!B29</f>
         <v>122</v>
@@ -10492,7 +10492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>blackcompany!B30</f>
         <v>203</v>
@@ -10542,7 +10542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>blackcompany!B31</f>
         <v>241</v>
@@ -10592,7 +10592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>blackcompany!B32</f>
         <v>142</v>
@@ -10642,7 +10642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>blackcompany!B33</f>
         <v>183</v>
@@ -10692,7 +10692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>blackcompany!B34</f>
         <v>48</v>
@@ -10742,7 +10742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>blackcompany!B35</f>
         <v>107</v>
@@ -10792,7 +10792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>blackcompany!B36</f>
         <v>163</v>
@@ -10842,7 +10842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>blackcompany!B37</f>
         <v>303</v>
@@ -10892,7 +10892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>blackcompany!B38</f>
         <v>255</v>
@@ -10942,7 +10942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>blackcompany!B39</f>
         <v>156</v>
@@ -10992,7 +10992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>blackcompany!B40</f>
         <v>280</v>
@@ -11042,7 +11042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>blackcompany!B41</f>
         <v>66</v>
@@ -11092,7 +11092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>blackcompany!B42</f>
         <v>164</v>
@@ -11142,7 +11142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>blackcompany!B43</f>
         <v>167</v>
@@ -11192,7 +11192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>blackcompany!B44</f>
         <v>53</v>
@@ -11242,7 +11242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>blackcompany!B45</f>
         <v>158</v>
@@ -11292,7 +11292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>blackcompany!B46</f>
         <v>251</v>
@@ -11342,7 +11342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>blackcompany!B47</f>
         <v>11</v>
@@ -11392,7 +11392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>blackcompany!B48</f>
         <v>171</v>
@@ -11442,7 +11442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>blackcompany!B49</f>
         <v>152</v>
@@ -11492,7 +11492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>blackcompany!B50</f>
         <v>290</v>
@@ -11542,7 +11542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>blackcompany!B51</f>
         <v>129</v>
@@ -11592,7 +11592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>blackcompany!B52</f>
         <v>243</v>
@@ -11642,7 +11642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>blackcompany!B53</f>
         <v>150</v>
@@ -11692,7 +11692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>blackcompany!B54</f>
         <v>103</v>
@@ -11742,7 +11742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>blackcompany!B55</f>
         <v>76</v>
@@ -11792,7 +11792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>blackcompany!B56</f>
         <v>120</v>
@@ -11842,7 +11842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>blackcompany!B57</f>
         <v>264</v>
@@ -11892,7 +11892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>blackcompany!B58</f>
         <v>195</v>
@@ -11942,7 +11942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>blackcompany!B59</f>
         <v>85</v>
@@ -11992,7 +11992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>blackcompany!B60</f>
         <v>91</v>
@@ -12042,7 +12042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>blackcompany!B61</f>
         <v>278</v>
@@ -12092,7 +12092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>blackcompany!B62</f>
         <v>228</v>
@@ -12142,7 +12142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>blackcompany!B63</f>
         <v>35</v>
@@ -12192,7 +12192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>blackcompany!B64</f>
         <v>70</v>
@@ -12242,7 +12242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>blackcompany!B65</f>
         <v>214</v>
@@ -12292,7 +12292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>blackcompany!B66</f>
         <v>95</v>
@@ -12342,7 +12342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>blackcompany!B67</f>
         <v>210</v>
@@ -12392,7 +12392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>blackcompany!B68</f>
         <v>97</v>
@@ -12442,7 +12442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>blackcompany!B69</f>
         <v>226</v>
@@ -12492,7 +12492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>blackcompany!B70</f>
         <v>178</v>
@@ -12542,7 +12542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>blackcompany!B71</f>
         <v>304</v>
@@ -12592,7 +12592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>blackcompany!B72</f>
         <v>19</v>
@@ -12642,7 +12642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>blackcompany!B73</f>
         <v>151</v>
@@ -12692,7 +12692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>blackcompany!B74</f>
         <v>238</v>
@@ -12742,7 +12742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>blackcompany!B75</f>
         <v>59</v>
@@ -12792,7 +12792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>blackcompany!B76</f>
         <v>52</v>
@@ -12842,7 +12842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>blackcompany!B77</f>
         <v>263</v>
@@ -12892,7 +12892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>blackcompany!B78</f>
         <v>189</v>
@@ -12942,7 +12942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <f>blackcompany!B79</f>
         <v>13</v>
@@ -12992,7 +12992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>blackcompany!B80</f>
         <v>211</v>
@@ -13042,7 +13042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <f>blackcompany!B81</f>
         <v>191</v>
@@ -13092,7 +13092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <f>blackcompany!B82</f>
         <v>138</v>
@@ -13142,7 +13142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <f>blackcompany!B83</f>
         <v>172</v>
@@ -13192,7 +13192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <f>blackcompany!B84</f>
         <v>27</v>
@@ -13242,7 +13242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <f>blackcompany!B85</f>
         <v>63</v>
@@ -13292,7 +13292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <f>blackcompany!B86</f>
         <v>236</v>
@@ -13342,7 +13342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <f>blackcompany!B87</f>
         <v>239</v>
@@ -13392,7 +13392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <f>blackcompany!B88</f>
         <v>268</v>
@@ -13442,7 +13442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <f>blackcompany!B89</f>
         <v>9</v>
@@ -13492,7 +13492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <f>blackcompany!B90</f>
         <v>75</v>
@@ -13542,7 +13542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <f>blackcompany!B91</f>
         <v>188</v>
@@ -13592,7 +13592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <f>blackcompany!B92</f>
         <v>221</v>
@@ -13642,7 +13642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <f>blackcompany!B93</f>
         <v>94</v>
@@ -13692,7 +13692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <f>blackcompany!B94</f>
         <v>28</v>
@@ -13742,7 +13742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <f>blackcompany!B95</f>
         <v>200</v>
@@ -13792,7 +13792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <f>blackcompany!B96</f>
         <v>26</v>
@@ -13842,7 +13842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <f>blackcompany!B97</f>
         <v>83</v>
@@ -13892,7 +13892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <f>blackcompany!B98</f>
         <v>259</v>
@@ -13942,7 +13942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <f>blackcompany!B99</f>
         <v>60</v>
@@ -13992,7 +13992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <f>blackcompany!B100</f>
         <v>93</v>
@@ -14042,7 +14042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <f>blackcompany!B101</f>
         <v>135</v>
@@ -14092,7 +14092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <f>blackcompany!B102</f>
         <v>180</v>
@@ -14142,7 +14142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <f>blackcompany!B103</f>
         <v>182</v>
@@ -14192,7 +14192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <f>blackcompany!B104</f>
         <v>154</v>
@@ -14242,7 +14242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <f>blackcompany!B105</f>
         <v>37</v>
@@ -14292,7 +14292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <f>blackcompany!B106</f>
         <v>273</v>
@@ -14342,7 +14342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <f>blackcompany!B107</f>
         <v>250</v>
@@ -14392,7 +14392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <f>blackcompany!B108</f>
         <v>39</v>
@@ -14442,7 +14442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <f>blackcompany!B109</f>
         <v>47</v>
@@ -14492,7 +14492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <f>blackcompany!B110</f>
         <v>272</v>
@@ -14542,7 +14542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <f>blackcompany!B111</f>
         <v>297</v>
@@ -14592,7 +14592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <f>blackcompany!B112</f>
         <v>302</v>
@@ -14642,7 +14642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <f>blackcompany!B113</f>
         <v>109</v>
@@ -14692,7 +14692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <f>blackcompany!B114</f>
         <v>96</v>
@@ -14742,7 +14742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <f>blackcompany!B115</f>
         <v>296</v>
@@ -14792,7 +14792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <f>blackcompany!B116</f>
         <v>254</v>
@@ -14842,7 +14842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <f>blackcompany!B117</f>
         <v>54</v>
@@ -14892,7 +14892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <f>blackcompany!B118</f>
         <v>105</v>
@@ -14942,7 +14942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <f>blackcompany!B119</f>
         <v>159</v>
@@ -14992,7 +14992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <f>blackcompany!B120</f>
         <v>101</v>
@@ -15042,7 +15042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <f>blackcompany!B121</f>
         <v>18</v>
@@ -15092,7 +15092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <f>blackcompany!B122</f>
         <v>137</v>
@@ -15142,7 +15142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <f>blackcompany!B123</f>
         <v>55</v>
@@ -15192,7 +15192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <f>blackcompany!B124</f>
         <v>253</v>
@@ -15242,7 +15242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <f>blackcompany!B125</f>
         <v>32</v>
@@ -15292,7 +15292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <f>blackcompany!B126</f>
         <v>215</v>
@@ -15342,7 +15342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <f>blackcompany!B127</f>
         <v>130</v>
@@ -15392,7 +15392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <f>blackcompany!B128</f>
         <v>112</v>
@@ -15442,7 +15442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <f>blackcompany!B129</f>
         <v>299</v>
@@ -15492,7 +15492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <f>blackcompany!B130</f>
         <v>206</v>
@@ -15542,7 +15542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <f>blackcompany!B131</f>
         <v>267</v>
@@ -15592,7 +15592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <f>blackcompany!B132</f>
         <v>65</v>
@@ -15642,7 +15642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <f>blackcompany!B133</f>
         <v>153</v>
@@ -15692,7 +15692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <f>blackcompany!B134</f>
         <v>81</v>
@@ -15742,7 +15742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <f>blackcompany!B135</f>
         <v>1</v>
@@ -15792,7 +15792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <f>blackcompany!B136</f>
         <v>131</v>
@@ -15842,7 +15842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <f>blackcompany!B137</f>
         <v>197</v>
@@ -15892,7 +15892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <f>blackcompany!B138</f>
         <v>209</v>
@@ -15942,7 +15942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <f>blackcompany!B139</f>
         <v>57</v>
@@ -15992,7 +15992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <f>blackcompany!B140</f>
         <v>285</v>
@@ -16042,7 +16042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <f>blackcompany!B141</f>
         <v>121</v>
@@ -16092,7 +16092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <f>blackcompany!B142</f>
         <v>235</v>
@@ -16142,7 +16142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <f>blackcompany!B143</f>
         <v>117</v>
@@ -16192,7 +16192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <f>blackcompany!B144</f>
         <v>177</v>
@@ -16242,7 +16242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <f>blackcompany!B145</f>
         <v>160</v>
@@ -16292,7 +16292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <f>blackcompany!B146</f>
         <v>12</v>
@@ -16342,7 +16342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <f>blackcompany!B147</f>
         <v>287</v>
@@ -16392,7 +16392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <f>blackcompany!B148</f>
         <v>29</v>
@@ -16442,7 +16442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <f>blackcompany!B149</f>
         <v>4</v>
@@ -16492,7 +16492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <f>blackcompany!B150</f>
         <v>115</v>
@@ -16542,7 +16542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <f>blackcompany!B151</f>
         <v>43</v>
@@ -16592,7 +16592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <f>blackcompany!B152</f>
         <v>41</v>
@@ -16642,7 +16642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <f>blackcompany!B153</f>
         <v>62</v>
@@ -16692,7 +16692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <f>blackcompany!B154</f>
         <v>246</v>
@@ -16742,7 +16742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <f>blackcompany!B155</f>
         <v>283</v>
@@ -16792,7 +16792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <f>blackcompany!B156</f>
         <v>155</v>
@@ -16842,7 +16842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <f>blackcompany!B157</f>
         <v>128</v>
@@ -16892,7 +16892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <f>blackcompany!B158</f>
         <v>61</v>
@@ -16942,7 +16942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <f>blackcompany!B159</f>
         <v>248</v>
@@ -16992,7 +16992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <f>blackcompany!B160</f>
         <v>42</v>
@@ -17042,7 +17042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <f>blackcompany!B161</f>
         <v>199</v>
@@ -17092,7 +17092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <f>blackcompany!B162</f>
         <v>140</v>
@@ -17142,7 +17142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <f>blackcompany!B163</f>
         <v>67</v>
@@ -17192,7 +17192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <f>blackcompany!B164</f>
         <v>139</v>
@@ -17242,7 +17242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <f>blackcompany!B165</f>
         <v>80</v>
@@ -17292,7 +17292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <f>blackcompany!B166</f>
         <v>240</v>
@@ -17342,7 +17342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <f>blackcompany!B167</f>
         <v>72</v>
@@ -17392,7 +17392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <f>blackcompany!B168</f>
         <v>217</v>
@@ -17442,7 +17442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <f>blackcompany!B169</f>
         <v>184</v>
@@ -17492,7 +17492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <f>blackcompany!B170</f>
         <v>276</v>
@@ -17542,7 +17542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <f>blackcompany!B171</f>
         <v>40</v>
@@ -17592,7 +17592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <f>blackcompany!B172</f>
         <v>44</v>
@@ -17642,7 +17642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <f>blackcompany!B173</f>
         <v>69</v>
@@ -17692,7 +17692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <f>blackcompany!B174</f>
         <v>169</v>
@@ -17742,7 +17742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <f>blackcompany!B175</f>
         <v>232</v>
@@ -17792,7 +17792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <f>blackcompany!B176</f>
         <v>133</v>
@@ -17842,7 +17842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <f>blackcompany!B177</f>
         <v>141</v>
@@ -17892,7 +17892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <f>blackcompany!B178</f>
         <v>242</v>
@@ -17942,7 +17942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <f>blackcompany!B179</f>
         <v>227</v>
@@ -17992,7 +17992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <f>blackcompany!B180</f>
         <v>73</v>
@@ -18042,7 +18042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <f>blackcompany!B181</f>
         <v>219</v>
@@ -18092,7 +18092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <f>blackcompany!B182</f>
         <v>14</v>
@@ -18142,7 +18142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <f>blackcompany!B183</f>
         <v>157</v>
@@ -18192,7 +18192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <f>blackcompany!B184</f>
         <v>92</v>
@@ -18242,7 +18242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <f>blackcompany!B185</f>
         <v>222</v>
@@ -18292,7 +18292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <f>blackcompany!B186</f>
         <v>10</v>
@@ -18342,7 +18342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <f>blackcompany!B187</f>
         <v>17</v>
@@ -18392,7 +18392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <f>blackcompany!B188</f>
         <v>79</v>
@@ -18442,7 +18442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <f>blackcompany!B189</f>
         <v>108</v>
@@ -18492,7 +18492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <f>blackcompany!B190</f>
         <v>146</v>
@@ -18542,7 +18542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <f>blackcompany!B191</f>
         <v>116</v>
@@ -18592,7 +18592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <f>blackcompany!B192</f>
         <v>6</v>
@@ -18642,7 +18642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <f>blackcompany!B193</f>
         <v>260</v>
@@ -18692,7 +18692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <f>blackcompany!B194</f>
         <v>218</v>
@@ -18742,7 +18742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <f>blackcompany!B195</f>
         <v>173</v>
@@ -18792,7 +18792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <f>blackcompany!B196</f>
         <v>282</v>
@@ -18842,7 +18842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <f>blackcompany!B197</f>
         <v>22</v>
@@ -18892,7 +18892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <f>blackcompany!B198</f>
         <v>262</v>
@@ -18942,7 +18942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <f>blackcompany!B199</f>
         <v>21</v>
@@ -18992,7 +18992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <f>blackcompany!B200</f>
         <v>301</v>
@@ -19042,7 +19042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <f>blackcompany!B201</f>
         <v>144</v>
@@ -19092,7 +19092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <f>blackcompany!B202</f>
         <v>15</v>
@@ -19142,7 +19142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <f>blackcompany!B203</f>
         <v>106</v>
@@ -19192,7 +19192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <f>blackcompany!B204</f>
         <v>166</v>
@@ -19242,7 +19242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <f>blackcompany!B205</f>
         <v>84</v>
@@ -19292,7 +19292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <f>blackcompany!B206</f>
         <v>127</v>
@@ -19342,7 +19342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <f>blackcompany!B207</f>
         <v>277</v>
@@ -19392,7 +19392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <f>blackcompany!B208</f>
         <v>111</v>
@@ -19442,7 +19442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <f>blackcompany!B209</f>
         <v>104</v>
@@ -19492,7 +19492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <f>blackcompany!B210</f>
         <v>216</v>
@@ -19542,7 +19542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <f>blackcompany!B211</f>
         <v>34</v>
@@ -19592,7 +19592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <f>blackcompany!B212</f>
         <v>168</v>
@@ -19642,7 +19642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <f>blackcompany!B213</f>
         <v>225</v>
@@ -19692,7 +19692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <f>blackcompany!B214</f>
         <v>257</v>
@@ -19742,7 +19742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <f>blackcompany!B215</f>
         <v>3</v>
@@ -19792,7 +19792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <f>blackcompany!B216</f>
         <v>249</v>
@@ -19842,7 +19842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <f>blackcompany!B217</f>
         <v>148</v>
@@ -19892,7 +19892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <f>blackcompany!B218</f>
         <v>274</v>
@@ -19942,7 +19942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <f>blackcompany!B219</f>
         <v>275</v>
@@ -19992,7 +19992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <f>blackcompany!B220</f>
         <v>86</v>
@@ -20042,7 +20042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <f>blackcompany!B221</f>
         <v>143</v>
@@ -20092,7 +20092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <f>blackcompany!B222</f>
         <v>30</v>
@@ -20142,7 +20142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <f>blackcompany!B223</f>
         <v>252</v>
@@ -20192,7 +20192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <f>blackcompany!B224</f>
         <v>7</v>
@@ -20242,7 +20242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <f>blackcompany!B225</f>
         <v>247</v>
@@ -20292,7 +20292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <f>blackcompany!B226</f>
         <v>102</v>
@@ -20342,7 +20342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <f>blackcompany!B227</f>
         <v>284</v>
@@ -20392,7 +20392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <f>blackcompany!B228</f>
         <v>123</v>
@@ -20442,7 +20442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <f>blackcompany!B229</f>
         <v>113</v>
@@ -20492,7 +20492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <f>blackcompany!B230</f>
         <v>88</v>
@@ -20542,7 +20542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <f>blackcompany!B231</f>
         <v>125</v>
@@ -20592,7 +20592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <f>blackcompany!B232</f>
         <v>223</v>
@@ -20642,7 +20642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <f>blackcompany!B233</f>
         <v>124</v>
@@ -20692,7 +20692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <f>blackcompany!B234</f>
         <v>33</v>
@@ -20742,7 +20742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <f>blackcompany!B235</f>
         <v>100</v>
@@ -20792,7 +20792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <f>blackcompany!B236</f>
         <v>231</v>
@@ -20842,7 +20842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <f>blackcompany!B237</f>
         <v>89</v>
@@ -20892,7 +20892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <f>blackcompany!B238</f>
         <v>161</v>
@@ -20942,7 +20942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <f>blackcompany!B239</f>
         <v>265</v>
@@ -20992,7 +20992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <f>blackcompany!B240</f>
         <v>271</v>
@@ -21042,7 +21042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <f>blackcompany!B241</f>
         <v>25</v>
@@ -21092,7 +21092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
         <f>blackcompany!B242</f>
         <v>68</v>
@@ -21142,7 +21142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
         <f>blackcompany!B243</f>
         <v>71</v>
@@ -21192,7 +21192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
         <f>blackcompany!B244</f>
         <v>270</v>
@@ -21242,7 +21242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
         <f>blackcompany!B245</f>
         <v>126</v>
@@ -21292,7 +21292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
         <f>blackcompany!B246</f>
         <v>279</v>
@@ -21342,7 +21342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
         <f>blackcompany!B247</f>
         <v>205</v>
@@ -21392,7 +21392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
         <f>blackcompany!B248</f>
         <v>258</v>
@@ -21442,7 +21442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
         <f>blackcompany!B249</f>
         <v>78</v>
@@ -21492,7 +21492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
         <f>blackcompany!B250</f>
         <v>298</v>
@@ -21542,7 +21542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
         <f>blackcompany!B251</f>
         <v>51</v>
@@ -21592,7 +21592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
         <f>blackcompany!B252</f>
         <v>174</v>
@@ -21642,7 +21642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
         <f>blackcompany!B253</f>
         <v>201</v>
@@ -21692,7 +21692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
         <f>blackcompany!B254</f>
         <v>45</v>
@@ -21742,7 +21742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
         <f>blackcompany!B255</f>
         <v>193</v>
@@ -21792,7 +21792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
         <f>blackcompany!B256</f>
         <v>58</v>
@@ -21842,7 +21842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
         <f>blackcompany!B257</f>
         <v>198</v>
@@ -21892,7 +21892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
         <f>blackcompany!B258</f>
         <v>208</v>
@@ -21942,7 +21942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
         <f>blackcompany!B259</f>
         <v>118</v>
@@ -21992,7 +21992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
         <f>blackcompany!B260</f>
         <v>36</v>
@@ -22042,7 +22042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
         <f>blackcompany!B261</f>
         <v>187</v>
@@ -22092,7 +22092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
         <f>blackcompany!B262</f>
         <v>207</v>
@@ -22142,7 +22142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
         <f>blackcompany!B263</f>
         <v>269</v>
@@ -22192,7 +22192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
         <f>blackcompany!B264</f>
         <v>82</v>
@@ -22242,7 +22242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
         <f>blackcompany!B265</f>
         <v>289</v>
@@ -22292,7 +22292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
         <f>blackcompany!B266</f>
         <v>266</v>
@@ -22342,7 +22342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
         <f>blackcompany!B267</f>
         <v>147</v>
@@ -22392,7 +22392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
         <f>blackcompany!B268</f>
         <v>288</v>
@@ -22442,7 +22442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
         <f>blackcompany!B269</f>
         <v>204</v>
@@ -22492,7 +22492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
         <f>blackcompany!B270</f>
         <v>50</v>
@@ -22542,7 +22542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
         <f>blackcompany!B271</f>
         <v>220</v>
@@ -22592,7 +22592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
         <f>blackcompany!B272</f>
         <v>213</v>
@@ -22642,7 +22642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
         <f>blackcompany!B273</f>
         <v>261</v>
@@ -22692,7 +22692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
         <f>blackcompany!B274</f>
         <v>74</v>
@@ -22742,7 +22742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
         <f>blackcompany!B275</f>
         <v>233</v>
@@ -22792,7 +22792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
         <f>blackcompany!B276</f>
         <v>8</v>
@@ -22842,7 +22842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
         <f>blackcompany!B277</f>
         <v>202</v>
@@ -22892,7 +22892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
         <f>blackcompany!B278</f>
         <v>245</v>
@@ -22942,7 +22942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
         <f>blackcompany!B279</f>
         <v>291</v>
@@ -22992,7 +22992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
         <f>blackcompany!B280</f>
         <v>212</v>
@@ -23042,7 +23042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
         <f>blackcompany!B281</f>
         <v>132</v>
@@ -23092,7 +23092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
         <f>blackcompany!B282</f>
         <v>295</v>
@@ -23142,7 +23142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
         <f>blackcompany!B283</f>
         <v>20</v>
@@ -23192,7 +23192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
         <f>blackcompany!B284</f>
         <v>294</v>
@@ -23242,7 +23242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
         <f>blackcompany!B285</f>
         <v>145</v>
@@ -23292,7 +23292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
         <f>blackcompany!B286</f>
         <v>56</v>
@@ -23342,7 +23342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
         <f>blackcompany!B287</f>
         <v>64</v>
@@ -23392,7 +23392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
         <f>blackcompany!B288</f>
         <v>24</v>
@@ -23442,7 +23442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
         <f>blackcompany!B289</f>
         <v>230</v>
@@ -23492,7 +23492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
         <f>blackcompany!B290</f>
         <v>99</v>
@@ -23542,7 +23542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
         <f>blackcompany!B291</f>
         <v>224</v>
@@ -23592,7 +23592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
         <f>blackcompany!B292</f>
         <v>293</v>
@@ -23642,7 +23642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
         <f>blackcompany!B293</f>
         <v>31</v>
@@ -23692,7 +23692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
         <f>blackcompany!B294</f>
         <v>46</v>
@@ -23742,7 +23742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
         <f>blackcompany!B295</f>
         <v>98</v>
@@ -23792,7 +23792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
         <f>blackcompany!B296</f>
         <v>281</v>
@@ -23842,7 +23842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
         <f>blackcompany!B297</f>
         <v>16</v>
@@ -23892,7 +23892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
         <f>blackcompany!B298</f>
         <v>186</v>
@@ -23942,7 +23942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
         <f>blackcompany!B299</f>
         <v>110</v>
@@ -23992,7 +23992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
         <f>blackcompany!B300</f>
         <v>149</v>
@@ -24042,7 +24042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
         <f>blackcompany!B301</f>
         <v>90</v>
@@ -24092,7 +24092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
         <f>blackcompany!B302</f>
         <v>114</v>
@@ -24142,7 +24142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
         <f>blackcompany!B303</f>
         <v>292</v>
@@ -24192,7 +24192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
         <f>blackcompany!B304</f>
         <v>170</v>
@@ -24242,7 +24242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
         <f>blackcompany!B305</f>
         <v>38</v>
@@ -24305,9 +24305,9 @@
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="e">
         <v>#N/A</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="e">
         <v>#N/A</v>
       </c>
@@ -24391,7 +24391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>999</v>
       </c>
@@ -24437,7 +24437,7 @@
         <v>0.57471264367816088</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>999</v>
       </c>
@@ -24521,7 +24521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="e">
         <v>#N/A</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>999</v>
       </c>
@@ -24647,7 +24647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="e">
         <v>#N/A</v>
       </c>
@@ -24689,7 +24689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24</v>
       </c>
@@ -24731,7 +24731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="e">
         <v>#N/A</v>
       </c>
@@ -24773,7 +24773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>999</v>
       </c>
@@ -24815,7 +24815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1002</v>
       </c>
@@ -24854,7 +24854,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>999</v>
       </c>
@@ -24900,7 +24900,7 @@
         <v>0.40229885057471265</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="e">
         <v>#N/A</v>
       </c>
@@ -24935,7 +24935,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="e">
         <v>#N/A</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1003</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1002</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1004</v>
       </c>
@@ -25075,7 +25075,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>999</v>
       </c>
@@ -25110,7 +25110,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1002</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="e">
         <v>#N/A</v>
       </c>
@@ -25180,7 +25180,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1002</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1005</v>
       </c>
@@ -25250,7 +25250,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1002</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="e">
         <v>#N/A</v>
       </c>
@@ -25320,7 +25320,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="e">
         <v>#N/A</v>
       </c>
@@ -25355,7 +25355,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1008</v>
       </c>
@@ -25390,7 +25390,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="e">
         <v>#N/A</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1002</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>999</v>
       </c>
@@ -25495,7 +25495,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="e">
         <v>#N/A</v>
       </c>
@@ -25530,7 +25530,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>999</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="e">
         <v>#N/A</v>
       </c>
@@ -25600,7 +25600,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="e">
         <v>#N/A</v>
       </c>
@@ -25635,7 +25635,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>999</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>999</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="e">
         <v>#N/A</v>
       </c>
@@ -25740,7 +25740,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="e">
         <v>#N/A</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>999</v>
       </c>
@@ -25810,7 +25810,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>999</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>999</v>
       </c>
@@ -25880,7 +25880,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="e">
         <v>#N/A</v>
       </c>
@@ -25915,7 +25915,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>999</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="e">
         <v>#N/A</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="e">
         <v>#N/A</v>
       </c>
@@ -26020,7 +26020,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>999</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1002</v>
       </c>
@@ -26090,7 +26090,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="e">
         <v>#N/A</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>999</v>
       </c>
@@ -26160,7 +26160,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="e">
         <v>#N/A</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1002</v>
       </c>
@@ -26230,7 +26230,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="e">
         <v>#N/A</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>999</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="e">
         <v>#N/A</v>
       </c>
@@ -26335,7 +26335,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>999</v>
       </c>
@@ -26370,7 +26370,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1002</v>
       </c>
@@ -26405,7 +26405,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="e">
         <v>#N/A</v>
       </c>
@@ -26440,7 +26440,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="e">
         <v>#N/A</v>
       </c>
@@ -26475,7 +26475,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="e">
         <v>#N/A</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="e">
         <v>#N/A</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="e">
         <v>#N/A</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1006</v>
       </c>
@@ -26615,7 +26615,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="e">
         <v>#N/A</v>
       </c>
@@ -26650,7 +26650,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>999</v>
       </c>
@@ -26685,7 +26685,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="e">
         <v>#N/A</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="e">
         <v>#N/A</v>
       </c>
@@ -26755,7 +26755,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="e">
         <v>#N/A</v>
       </c>
@@ -26790,7 +26790,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="e">
         <v>#N/A</v>
       </c>
@@ -26825,7 +26825,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>999</v>
       </c>
@@ -26860,7 +26860,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="e">
         <v>#N/A</v>
       </c>
@@ -26895,7 +26895,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1002</v>
       </c>
@@ -26930,7 +26930,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="e">
         <v>#N/A</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="e">
         <v>#N/A</v>
       </c>
@@ -27000,7 +27000,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>22</v>
       </c>
@@ -27035,7 +27035,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>999</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="e">
         <v>#N/A</v>
       </c>
@@ -27105,7 +27105,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="e">
         <v>#N/A</v>
       </c>
@@ -27140,7 +27140,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="e">
         <v>#N/A</v>
       </c>
@@ -27175,7 +27175,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="e">
         <v>#N/A</v>
       </c>
@@ -27210,7 +27210,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1001</v>
       </c>
@@ -27245,7 +27245,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>999</v>
       </c>
@@ -27280,7 +27280,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1006</v>
       </c>
@@ -27315,7 +27315,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>999</v>
       </c>
@@ -27350,7 +27350,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="e">
         <v>#N/A</v>
       </c>
@@ -27385,7 +27385,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="e">
         <v>#N/A</v>
       </c>
@@ -27420,7 +27420,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="e">
         <v>#N/A</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="e">
         <v>#N/A</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>999</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="e">
         <v>#N/A</v>
       </c>
@@ -27560,7 +27560,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="e">
         <v>#N/A</v>
       </c>
@@ -27595,7 +27595,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="e">
         <v>#N/A</v>
       </c>
@@ -27630,7 +27630,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>999</v>
       </c>
@@ -27665,7 +27665,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="e">
         <v>#N/A</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>999</v>
       </c>
@@ -27735,7 +27735,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="e">
         <v>#N/A</v>
       </c>
@@ -27770,7 +27770,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>999</v>
       </c>
@@ -27805,7 +27805,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="e">
         <v>#N/A</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>999</v>
       </c>
@@ -27875,7 +27875,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1002</v>
       </c>
@@ -27910,7 +27910,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1002</v>
       </c>
@@ -27945,7 +27945,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1002</v>
       </c>
@@ -27980,7 +27980,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1005</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>999</v>
       </c>
@@ -28050,7 +28050,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1002</v>
       </c>
@@ -28085,7 +28085,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="e">
         <v>#N/A</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1006</v>
       </c>
@@ -28155,7 +28155,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="e">
         <v>#N/A</v>
       </c>
@@ -28190,7 +28190,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="e">
         <v>#N/A</v>
       </c>
@@ -28225,7 +28225,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="e">
         <v>#N/A</v>
       </c>
@@ -28260,7 +28260,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="e">
         <v>#N/A</v>
       </c>
@@ -28295,7 +28295,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>999</v>
       </c>
@@ -28330,7 +28330,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="e">
         <v>#N/A</v>
       </c>
@@ -28365,7 +28365,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>999</v>
       </c>
@@ -28400,7 +28400,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="e">
         <v>#N/A</v>
       </c>
@@ -28435,7 +28435,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>999</v>
       </c>
@@ -28470,7 +28470,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="e">
         <v>#N/A</v>
       </c>
@@ -28505,7 +28505,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="e">
         <v>#N/A</v>
       </c>
@@ -28540,7 +28540,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>999</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="e">
         <v>#N/A</v>
       </c>
@@ -28610,7 +28610,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>999</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>999</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="e">
         <v>#N/A</v>
       </c>
@@ -28715,7 +28715,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>999</v>
       </c>
@@ -28750,7 +28750,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1001</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>999</v>
       </c>
@@ -28820,7 +28820,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="e">
         <v>#N/A</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="e">
         <v>#N/A</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1001</v>
       </c>
@@ -28925,7 +28925,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>999</v>
       </c>
@@ -28960,7 +28960,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="e">
         <v>#N/A</v>
       </c>
@@ -28995,7 +28995,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="e">
         <v>#N/A</v>
       </c>
@@ -29030,7 +29030,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="e">
         <v>#N/A</v>
       </c>
@@ -29065,7 +29065,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="e">
         <v>#N/A</v>
       </c>
@@ -29100,7 +29100,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>999</v>
       </c>
@@ -29135,7 +29135,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>999</v>
       </c>
@@ -29170,7 +29170,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="e">
         <v>#N/A</v>
       </c>
@@ -29205,7 +29205,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="e">
         <v>#N/A</v>
       </c>
@@ -29240,7 +29240,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="e">
         <v>#N/A</v>
       </c>
@@ -29275,7 +29275,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="e">
         <v>#N/A</v>
       </c>
@@ -29310,7 +29310,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="e">
         <v>#N/A</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>999</v>
       </c>
@@ -29380,7 +29380,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="e">
         <v>#N/A</v>
       </c>
@@ -29415,7 +29415,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="e">
         <v>#N/A</v>
       </c>
@@ -29450,7 +29450,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="e">
         <v>#N/A</v>
       </c>
@@ -29485,7 +29485,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="e">
         <v>#N/A</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>999</v>
       </c>
@@ -29555,7 +29555,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="e">
         <v>#N/A</v>
       </c>
@@ -29590,7 +29590,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>999</v>
       </c>
@@ -29625,7 +29625,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="e">
         <v>#N/A</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>999</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="e">
         <v>#N/A</v>
       </c>
@@ -29730,7 +29730,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="e">
         <v>#N/A</v>
       </c>
@@ -29765,7 +29765,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="e">
         <v>#N/A</v>
       </c>
@@ -29797,7 +29797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1002</v>
       </c>
@@ -29829,7 +29829,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>999</v>
       </c>
@@ -29861,7 +29861,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1007</v>
       </c>
@@ -29896,7 +29896,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>999</v>
       </c>
@@ -29931,7 +29931,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="e">
         <v>#N/A</v>
       </c>
@@ -29966,7 +29966,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>999</v>
       </c>
@@ -30001,7 +30001,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>999</v>
       </c>
@@ -30036,7 +30036,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>999</v>
       </c>
@@ -30071,7 +30071,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1001</v>
       </c>
@@ -30106,7 +30106,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>999</v>
       </c>
@@ -30141,7 +30141,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="e">
         <v>#N/A</v>
       </c>
@@ -30176,7 +30176,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="e">
         <v>#N/A</v>
       </c>
@@ -30211,7 +30211,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="e">
         <v>#N/A</v>
       </c>
@@ -30246,7 +30246,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="e">
         <v>#N/A</v>
       </c>
@@ -30281,7 +30281,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="e">
         <v>#N/A</v>
       </c>
@@ -30316,7 +30316,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1006</v>
       </c>
@@ -30351,7 +30351,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="e">
         <v>#N/A</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>999</v>
       </c>
@@ -30421,7 +30421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>999</v>
       </c>
@@ -30456,7 +30456,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="e">
         <v>#N/A</v>
       </c>
@@ -30491,7 +30491,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>999</v>
       </c>
@@ -30526,7 +30526,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1001</v>
       </c>
@@ -30561,7 +30561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1002</v>
       </c>
@@ -30596,7 +30596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1001</v>
       </c>
@@ -30628,7 +30628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="e">
         <v>#N/A</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="e">
         <v>#N/A</v>
       </c>
@@ -30692,7 +30692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="e">
         <v>#N/A</v>
       </c>
@@ -30724,7 +30724,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="e">
         <v>#N/A</v>
       </c>
@@ -30756,7 +30756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="e">
         <v>#N/A</v>
       </c>
@@ -30788,7 +30788,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1001</v>
       </c>
@@ -30820,7 +30820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="e">
         <v>#N/A</v>
       </c>
@@ -30852,7 +30852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="e">
         <v>#N/A</v>
       </c>
@@ -30884,7 +30884,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>999</v>
       </c>
@@ -30916,7 +30916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="e">
         <v>#N/A</v>
       </c>
@@ -30948,7 +30948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1002</v>
       </c>
@@ -30980,7 +30980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>999</v>
       </c>
@@ -31012,7 +31012,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="e">
         <v>#N/A</v>
       </c>
@@ -31044,7 +31044,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1002</v>
       </c>
@@ -31076,7 +31076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>999</v>
       </c>
@@ -31108,7 +31108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="e">
         <v>#N/A</v>
       </c>
@@ -31140,7 +31140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="e">
         <v>#N/A</v>
       </c>
@@ -31172,7 +31172,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="e">
         <v>#N/A</v>
       </c>
@@ -31204,7 +31204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>999</v>
       </c>
@@ -31236,7 +31236,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="e">
         <v>#N/A</v>
       </c>
@@ -31268,7 +31268,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="e">
         <v>#N/A</v>
       </c>
@@ -31300,7 +31300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="e">
         <v>#N/A</v>
       </c>
@@ -31332,7 +31332,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="e">
         <v>#N/A</v>
       </c>
@@ -31364,7 +31364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="e">
         <v>#N/A</v>
       </c>
@@ -31396,7 +31396,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="e">
         <v>#N/A</v>
       </c>
@@ -31428,7 +31428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="e">
         <v>#N/A</v>
       </c>
@@ -31460,7 +31460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1003</v>
       </c>
@@ -31492,7 +31492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="e">
         <v>#N/A</v>
       </c>
@@ -31524,7 +31524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>999</v>
       </c>
@@ -31556,7 +31556,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="e">
         <v>#N/A</v>
       </c>
@@ -31588,7 +31588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>999</v>
       </c>
@@ -31620,7 +31620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1003</v>
       </c>
@@ -31652,7 +31652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1002</v>
       </c>
@@ -31684,7 +31684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1002</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>999</v>
       </c>
@@ -31748,7 +31748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="e">
         <v>#N/A</v>
       </c>
@@ -31780,7 +31780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1002</v>
       </c>
@@ -31812,7 +31812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="e">
         <v>#N/A</v>
       </c>
@@ -31844,7 +31844,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="e">
         <v>#N/A</v>
       </c>
@@ -31876,7 +31876,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="e">
         <v>#N/A</v>
       </c>
@@ -31908,7 +31908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="e">
         <v>#N/A</v>
       </c>
@@ -31940,7 +31940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="e">
         <v>#N/A</v>
       </c>
@@ -31972,7 +31972,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>999</v>
       </c>
@@ -32004,7 +32004,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1002</v>
       </c>
@@ -32036,7 +32036,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="e">
         <v>#N/A</v>
       </c>
@@ -32068,7 +32068,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>999</v>
       </c>
@@ -32100,7 +32100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>999</v>
       </c>
@@ -32132,7 +32132,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="e">
         <v>#N/A</v>
       </c>
@@ -32164,7 +32164,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1008</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>999</v>
       </c>
@@ -32228,7 +32228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1006</v>
       </c>
@@ -32260,7 +32260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>999</v>
       </c>
@@ -32292,7 +32292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1002</v>
       </c>
@@ -32324,7 +32324,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1008</v>
       </c>
@@ -32356,7 +32356,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>999</v>
       </c>
@@ -32388,7 +32388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="e">
         <v>#N/A</v>
       </c>
@@ -32420,7 +32420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1001</v>
       </c>
@@ -32452,7 +32452,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="e">
         <v>#N/A</v>
       </c>
@@ -32484,7 +32484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1002</v>
       </c>
@@ -32516,7 +32516,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>999</v>
       </c>
@@ -32548,7 +32548,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1001</v>
       </c>
@@ -32580,7 +32580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="e">
         <v>#N/A</v>
       </c>
@@ -32612,7 +32612,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>999</v>
       </c>
@@ -32647,7 +32647,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="e">
         <v>#N/A</v>
       </c>
@@ -32682,7 +32682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1001</v>
       </c>
@@ -32714,7 +32714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>999</v>
       </c>
@@ -32746,7 +32746,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="e">
         <v>#N/A</v>
       </c>
@@ -32778,7 +32778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1002</v>
       </c>
@@ -32810,7 +32810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>999</v>
       </c>
@@ -32842,7 +32842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1006</v>
       </c>
@@ -32874,7 +32874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="e">
         <v>#N/A</v>
       </c>
@@ -32906,7 +32906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>999</v>
       </c>
@@ -32938,7 +32938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1002</v>
       </c>
@@ -32970,7 +32970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="e">
         <v>#N/A</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>999</v>
       </c>
@@ -33034,7 +33034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="e">
         <v>#N/A</v>
       </c>
@@ -33066,7 +33066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>999</v>
       </c>
@@ -33098,7 +33098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="e">
         <v>#N/A</v>
       </c>
@@ -33130,7 +33130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="e">
         <v>#N/A</v>
       </c>
@@ -33162,7 +33162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="e">
         <v>#N/A</v>
       </c>
@@ -33194,7 +33194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="e">
         <v>#N/A</v>
       </c>
@@ -33226,7 +33226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="e">
         <v>#N/A</v>
       </c>
@@ -33258,7 +33258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1001</v>
       </c>
@@ -33290,7 +33290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1001</v>
       </c>
@@ -33322,7 +33322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="e">
         <v>#N/A</v>
       </c>
@@ -33354,7 +33354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="e">
         <v>#N/A</v>
       </c>
@@ -33386,7 +33386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>999</v>
       </c>
@@ -33418,7 +33418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1002</v>
       </c>
@@ -33450,7 +33450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="e">
         <v>#N/A</v>
       </c>
@@ -33482,7 +33482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1002</v>
       </c>
@@ -33514,7 +33514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="e">
         <v>#N/A</v>
       </c>
@@ -33546,7 +33546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="e">
         <v>#N/A</v>
       </c>
@@ -33578,7 +33578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>999</v>
       </c>
@@ -33610,7 +33610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>999</v>
       </c>
@@ -33642,7 +33642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>999</v>
       </c>
@@ -33674,7 +33674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="e">
         <v>#N/A</v>
       </c>
@@ -33706,7 +33706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="e">
         <v>#N/A</v>
       </c>
@@ -33738,7 +33738,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="e">
         <v>#N/A</v>
       </c>
@@ -33770,7 +33770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>999</v>
       </c>
@@ -33802,7 +33802,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="e">
         <v>#N/A</v>
       </c>
@@ -33834,7 +33834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>999</v>
       </c>
@@ -33866,7 +33866,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1002</v>
       </c>
@@ -33898,7 +33898,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1002</v>
       </c>
@@ -33930,7 +33930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="e">
         <v>#N/A</v>
       </c>
@@ -33962,7 +33962,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1002</v>
       </c>
@@ -33994,7 +33994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>999</v>
       </c>
@@ -34026,7 +34026,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>999</v>
       </c>
@@ -34058,7 +34058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="e">
         <v>#N/A</v>
       </c>
@@ -34090,7 +34090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>999</v>
       </c>
@@ -34122,7 +34122,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1002</v>
       </c>
@@ -34154,7 +34154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>999</v>
       </c>
@@ -34186,7 +34186,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>999</v>
       </c>
@@ -34218,7 +34218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="e">
         <v>#N/A</v>
       </c>
@@ -34250,7 +34250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="e">
         <v>#N/A</v>
       </c>
@@ -34282,7 +34282,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="e">
         <v>#N/A</v>
       </c>
@@ -34314,7 +34314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="e">
         <v>#N/A</v>
       </c>
@@ -34346,7 +34346,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="e">
         <v>#N/A</v>
       </c>
@@ -34378,7 +34378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="e">
         <v>#N/A</v>
       </c>
@@ -34410,7 +34410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="e">
         <v>#N/A</v>
       </c>
@@ -34442,7 +34442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>999</v>
       </c>
@@ -34474,7 +34474,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="e">
         <v>#N/A</v>
       </c>
@@ -34506,7 +34506,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="e">
         <v>#N/A</v>
       </c>
@@ -34538,7 +34538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>999</v>
       </c>
@@ -34570,7 +34570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1002</v>
       </c>
@@ -34602,7 +34602,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>999</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1006</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M305">
         <v>1007</v>
       </c>
